--- a/config_12.08/fish_3d_yutu_random_5.xlsx
+++ b/config_12.08/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,23 +332,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>117,118,119,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,122,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123,124,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124,125,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,132,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,136,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +478,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -514,6 +520,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1071,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" activeCellId="1" sqref="A15:XFD15 E30"/>
     </sheetView>
   </sheetViews>
@@ -1342,7 +1355,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1363,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1668,6 +1681,102 @@
       </c>
       <c r="H12" s="14">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="20">
+        <v>71</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20">
+        <v>72</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="20">
+        <v>73</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="20">
+        <v>74</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
+        <v>5</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -1865,8 +1974,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1917,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>48</v>
@@ -1934,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>48</v>
@@ -1951,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>49</v>
@@ -1968,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>75</v>

--- a/config_12.08/fish_3d_yutu_random_5.xlsx
+++ b/config_12.08/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1691,7 +1691,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="20">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="20">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21">
         <v>2</v>
@@ -1739,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
@@ -1763,7 +1763,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="20">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="21">
         <v>2</v>

--- a/config_12.08/fish_3d_yutu_random_5.xlsx
+++ b/config_12.08/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -272,26 +272,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>39,40,41,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,6 +337,18 @@
   </si>
   <si>
     <t>135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,155,156,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,157,158,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,159,160,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" activeCellId="1" sqref="A15:XFD15 E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1133,7 +1133,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1150,7 +1150,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1209,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1228,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="11">
         <v>40</v>
@@ -1264,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="11">
         <v>50</v>
@@ -1355,7 +1355,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1974,7 +1974,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
@@ -2026,16 +2026,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2043,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>48</v>
@@ -2052,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2060,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>49</v>
@@ -2069,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2077,16 +2077,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
